--- a/medicine/Pharmacie/Monofluorophosphate_de_sodium/Monofluorophosphate_de_sodium.xlsx
+++ b/medicine/Pharmacie/Monofluorophosphate_de_sodium/Monofluorophosphate_de_sodium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le monofluorophosphate de sodium est un composé inorganique de formule Na2PO3F[3] utilisé dans certains dentifrices.
+Le monofluorophosphate de sodium est un composé inorganique de formule Na2PO3F utilisé dans certains dentifrices.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Synthèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fluorophosphate de sodium peut être obtenu d'une réaction entre le métaphosphate de sodium et le fluorure de sodium à 650 °C[4]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fluorophosphate de sodium peut être obtenu d'une réaction entre le métaphosphate de sodium et le fluorure de sodium à 650 °C:
           N
           a
           P
@@ -561,11 +575,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le monofluorophosphate de sodium est utilisé dans les dentifrices comme agent antibactérien[5]. Ce composé est utilisé en remplacement du fluorure de sodium, les études comparant l'efficacité de ces deux composés n'ont jusqu'ici pas permis de déterminer une activité supérieure du monofluorophosphate de sodium[6],[7],[8].
-L’efficacité de ce composé a également été testée contre l'ostéoporose[9].
-Ce composé est, de plus, utilisé comme inhibiteur de corrosion[10] dans les bétons.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le monofluorophosphate de sodium est utilisé dans les dentifrices comme agent antibactérien. Ce composé est utilisé en remplacement du fluorure de sodium, les études comparant l'efficacité de ces deux composés n'ont jusqu'ici pas permis de déterminer une activité supérieure du monofluorophosphate de sodium.
+L’efficacité de ce composé a également été testée contre l'ostéoporose.
+Ce composé est, de plus, utilisé comme inhibiteur de corrosion dans les bétons.
 </t>
         </is>
       </c>
@@ -594,9 +610,11 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Autres dénominations non officielles[11] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Autres dénominations non officielles :
 fluorophosphate de disodium ;
 monofluorophosphate de disodium ;
 phosphofluoridate de disodium ;
@@ -629,9 +647,11 @@
           <t>Risques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le monofluorophosphate de sodium n'est pas classé comme cancérigène[12], mais une ingestion de fluor en trop grande quantité peut provoquer une fluorose dentaire[13].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le monofluorophosphate de sodium n'est pas classé comme cancérigène, mais une ingestion de fluor en trop grande quantité peut provoquer une fluorose dentaire.
 </t>
         </is>
       </c>
